--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H2">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J2">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N2">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P2">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q2">
-        <v>10.45695917111998</v>
+        <v>19.00022163387111</v>
       </c>
       <c r="R2">
-        <v>10.45695917111998</v>
+        <v>171.0019947048399</v>
       </c>
       <c r="S2">
-        <v>0.03213679234913654</v>
+        <v>0.0506356655481482</v>
       </c>
       <c r="T2">
-        <v>0.03213679234913654</v>
+        <v>0.05063566554814821</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H3">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J3">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N3">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P3">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q3">
-        <v>50.77642813775117</v>
+        <v>65.61650014176978</v>
       </c>
       <c r="R3">
-        <v>50.77642813775117</v>
+        <v>590.5485012759279</v>
       </c>
       <c r="S3">
-        <v>0.156048378939878</v>
+        <v>0.1748682315208204</v>
       </c>
       <c r="T3">
-        <v>0.156048378939878</v>
+        <v>0.1748682315208204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.2040091898922</v>
+        <v>9.295069333333332</v>
       </c>
       <c r="H4">
-        <v>7.2040091898922</v>
+        <v>27.885208</v>
       </c>
       <c r="I4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714356</v>
       </c>
       <c r="J4">
-        <v>0.2410417237350002</v>
+        <v>0.2851098797714357</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N4">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P4">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q4">
-        <v>17.1989414764565</v>
+        <v>22.36618932113511</v>
       </c>
       <c r="R4">
-        <v>17.1989414764565</v>
+        <v>201.295703890216</v>
       </c>
       <c r="S4">
-        <v>0.05285655244598571</v>
+        <v>0.05960598270246703</v>
       </c>
       <c r="T4">
-        <v>0.05285655244598571</v>
+        <v>0.05960598270246705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H5">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J5">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N5">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P5">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q5">
-        <v>12.44620393225018</v>
+        <v>17.55505654574277</v>
       </c>
       <c r="R5">
-        <v>12.44620393225018</v>
+        <v>157.9955089116849</v>
       </c>
       <c r="S5">
-        <v>0.03825022788751038</v>
+        <v>0.04678429489182511</v>
       </c>
       <c r="T5">
-        <v>0.03825022788751038</v>
+        <v>0.04678429489182511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H6">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J6">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N6">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P6">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q6">
-        <v>60.43571263996918</v>
+        <v>60.62568071674744</v>
       </c>
       <c r="R6">
-        <v>60.43571263996918</v>
+        <v>545.6311264507269</v>
       </c>
       <c r="S6">
-        <v>0.1857337219931746</v>
+        <v>0.161567678080637</v>
       </c>
       <c r="T6">
-        <v>0.1857337219931746</v>
+        <v>0.161567678080637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.574439857700961</v>
+        <v>8.588082333333332</v>
       </c>
       <c r="H7">
-        <v>8.574439857700961</v>
+        <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="J7">
-        <v>0.2868954923408776</v>
+        <v>0.2634242988100204</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N7">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P7">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q7">
-        <v>20.47072476155484</v>
+        <v>20.66500727261877</v>
       </c>
       <c r="R7">
-        <v>20.47072476155484</v>
+        <v>185.985065453569</v>
       </c>
       <c r="S7">
-        <v>0.06291154246019265</v>
+        <v>0.05507232583755833</v>
       </c>
       <c r="T7">
-        <v>0.06291154246019265</v>
+        <v>0.05507232583755834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H8">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J8">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.45154717262048</v>
+        <v>2.044118333333333</v>
       </c>
       <c r="N8">
-        <v>1.45154717262048</v>
+        <v>6.132354999999999</v>
       </c>
       <c r="O8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="P8">
-        <v>0.133324603936485</v>
+        <v>0.1776005292722278</v>
       </c>
       <c r="Q8">
-        <v>20.47919829484277</v>
+        <v>30.08647288528444</v>
       </c>
       <c r="R8">
-        <v>20.47919829484277</v>
+        <v>270.77825596756</v>
       </c>
       <c r="S8">
-        <v>0.0629375836998381</v>
+        <v>0.08018056883225447</v>
       </c>
       <c r="T8">
-        <v>0.0629375836998381</v>
+        <v>0.08018056883225445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H9">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J9">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.04835693560671</v>
+        <v>7.059280333333334</v>
       </c>
       <c r="N9">
-        <v>7.04835693560671</v>
+        <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="P9">
-        <v>0.6473915657499887</v>
+        <v>0.6133362746356149</v>
       </c>
       <c r="Q9">
-        <v>99.44196238316836</v>
+        <v>103.9024223182391</v>
       </c>
       <c r="R9">
-        <v>99.44196238316836</v>
+        <v>935.1218008641521</v>
       </c>
       <c r="S9">
-        <v>0.3056094648169361</v>
+        <v>0.2769003650341575</v>
       </c>
       <c r="T9">
-        <v>0.3056094648169361</v>
+        <v>0.2769003650341575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1085310082425</v>
+        <v>14.71855733333333</v>
       </c>
       <c r="H10">
-        <v>14.1085310082425</v>
+        <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="J10">
-        <v>0.4720627839241223</v>
+        <v>0.4514658214185439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.38741248423003</v>
+        <v>2.406242333333333</v>
       </c>
       <c r="N10">
-        <v>2.38741248423003</v>
+        <v>7.218726999999999</v>
       </c>
       <c r="O10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="P10">
-        <v>0.2192838303135265</v>
+        <v>0.2090631960921573</v>
       </c>
       <c r="Q10">
-        <v>33.68288306322464</v>
+        <v>35.41641574106045</v>
       </c>
       <c r="R10">
-        <v>33.68288306322464</v>
+        <v>318.747741669544</v>
       </c>
       <c r="S10">
-        <v>0.1035157354073481</v>
+        <v>0.0943848875521319</v>
       </c>
       <c r="T10">
-        <v>0.1035157354073481</v>
+        <v>0.0943848875521319</v>
       </c>
     </row>
   </sheetData>
